--- a/Tugas9/Table.xlsx
+++ b/Tugas9/Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PROGJAR\progjar-b-its-2020\Tugas9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E727CBD-C823-444F-B446-A8CE1B8D16A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914F8D26-2945-4767-BB80-CFDDA0704608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{73E4FCE2-2E05-4B1B-979F-483C4B2EA957}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>No.</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Thread</t>
+  </si>
+  <si>
+    <t>Asynchronous + Load balancer</t>
   </si>
 </sst>
 </file>
@@ -453,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324B2E7C-F1C0-40CF-AB95-868A3C2D6A73}">
-  <dimension ref="B1:K16"/>
+  <dimension ref="B1:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -847,6 +850,193 @@
         <v>95.91</v>
       </c>
     </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>122000</v>
+      </c>
+      <c r="H21" s="5">
+        <v>918.96</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="J21" s="5">
+        <v>109.49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="5">
+        <v>2</v>
+      </c>
+      <c r="C22" s="5">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>122000</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1740.94</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="J22" s="5">
+        <v>207.42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="5">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>122000</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1746.59</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="J23" s="5">
+        <v>208.09</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
+        <v>4</v>
+      </c>
+      <c r="C24" s="5">
+        <v>25</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>122000</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1676.59</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="J24" s="5">
+        <v>199.75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="5">
+        <v>5</v>
+      </c>
+      <c r="C25" s="5">
+        <v>50</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>122000</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1730.79</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="J25" s="5">
+        <v>206.21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
